--- a/tesztadat.xlsx
+++ b/tesztadat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balázs\Desktop\pythonProjects\trafiprojekt\traffipax-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balázs\Desktop\pythonProjects\trafiprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CBD63C-6144-4359-B52C-7EC7593295CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A064DE2-3229-4235-8894-D825E42A861A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10485" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>10,135,145</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>H,KZK-252,C,b,101,10:12:00</t>
+  </si>
+  <si>
+    <t>H,HIZ-202,B,b,101,09:50:00</t>
+  </si>
+  <si>
+    <t>H,JKL-622,C,sz,99,05:50:00</t>
+  </si>
+  <si>
+    <t>GR,IBF-5610,A,sz,80,07:14:00</t>
+  </si>
+  <si>
+    <t>GR,IHX-5962,B,sz,60,09:14:00</t>
   </si>
 </sst>
 </file>
@@ -369,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -422,6 +434,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
